--- a/1_1_1_Flanker/PNblock7.xlsx
+++ b/1_1_1_Flanker/PNblock7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zijing/Desktop/YanLab_toolbox_flanker_Chinese_online/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chen-nanwu/Documents/认知实验工具箱/认知实验工具箱【发布后修改】/CEST_Github_0104_v2/【有改动】1_1_1_Flanker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F08D1B-D2B1-D244-8E69-3743492A4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001704B6-F59D-4D41-BF17-B74DAC42ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="760" windowWidth="18600" windowHeight="16300" xr2:uid="{547EA6C9-975F-A74D-97A0-1899FD5101AA}"/>
+    <workbookView xWindow="10200" yWindow="600" windowWidth="18600" windowHeight="16300" xr2:uid="{547EA6C9-975F-A74D-97A0-1899FD5101AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>left_arrow</t>
   </si>
@@ -71,13 +70,25 @@
   </si>
   <si>
     <t>img/congruent_right.png</t>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>congruent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incongruent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +109,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -447,7 +465,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -475,6 +493,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -492,7 +513,9 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -510,7 +533,9 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
